--- a/Preperation/CodeathonAttendeeList.xlsx
+++ b/Preperation/CodeathonAttendeeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kader\Github\Codeathon\Preperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B70C35-0189-486D-97DB-14E1DB82A275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35045AD-D433-4362-95AD-A3020330DA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,12 +463,6 @@
     <t>nagu10870@gmail.com</t>
   </si>
   <si>
-    <t>JosyGeorge</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
     <t>joe.george.josy@gmail.com</t>
   </si>
   <si>
@@ -833,6 +827,12 @@
   </si>
   <si>
     <t>Thanabalasingam</t>
+  </si>
+  <si>
+    <t>Josy</t>
+  </si>
+  <si>
+    <t>George</t>
   </si>
 </sst>
 </file>
@@ -991,27 +991,27 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,7 +1029,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>175</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1039,7 +1039,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AA4BA3-14A5-4B93-BAD3-268FFFD6C56A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1089,7 +1089,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40190E50-A604-471C-A847-05787AFEA365}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1129,7 +1129,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>175</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1139,7 +1139,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261806D0-DB22-45AC-A0E0-C851CDD3B08B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1189,7 +1189,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CEAF3C-7599-4D7D-9268-68789808CEC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1229,7 +1229,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>175</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1239,7 +1239,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB457E9-77E8-4C1B-8546-D6AF8CFCAC2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1289,7 +1289,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56391293-9676-40E7-A149-8D14BFC50283}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1643,8 +1643,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1723,10 +1723,10 @@
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>107</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>77</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>90</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1968,7 +1968,7 @@
         <v>43868.418668999999</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2007,13 +2007,13 @@
         <v>43881.680138900003</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>35</v>
@@ -2055,7 +2055,7 @@
         <v>43868.3983333</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -2142,13 +2142,13 @@
         <v>43884.895636599998</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>19</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>35</v>
@@ -2190,7 +2190,7 @@
         <v>43868.390844900001</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -2229,13 +2229,13 @@
         <v>43881.670416699999</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="M13" s="8"/>
       <c r="P13" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2271,13 +2271,13 @@
         <v>43881.6827662</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>35</v>
@@ -2310,7 +2310,7 @@
         <v>35</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2417,13 +2417,13 @@
         <v>43884.588148100003</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -2456,7 +2456,7 @@
         <v>35</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2467,13 +2467,13 @@
         <v>43882.430161999997</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -2500,7 +2500,7 @@
         <v>4168172784</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>35</v>
@@ -2548,7 +2548,7 @@
         <v>6477392882</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>43881.660821799996</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>145</v>
@@ -2589,10 +2589,10 @@
         <v>19</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2642,7 @@
         <v>40</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>35</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>71</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2801,7 +2801,7 @@
         <v>43871.9128241</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>27</v>
@@ -2843,7 +2843,7 @@
         <v>43880.607754600001</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>115</v>
@@ -2876,7 +2876,7 @@
         <v>6478692583</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2926,7 +2926,7 @@
         <v>124</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>130</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2987,13 +2987,13 @@
         <v>43881.772870399996</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="F29" s="2">
         <v>1</v>
@@ -3017,7 +3017,7 @@
         <v>19</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>35</v>
@@ -3074,7 +3074,7 @@
         <v>45</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>43880.308877299998</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>97</v>
@@ -3124,7 +3124,7 @@
         <v>101</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3174,7 @@
         <v>45</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3185,13 +3185,13 @@
         <v>43881.8438542</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -3215,7 +3215,7 @@
         <v>19</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>35</v>
@@ -3224,7 +3224,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>43880.548645800001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>113</v>
@@ -3307,7 +3307,7 @@
         <v>19</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>35</v>
@@ -3373,7 +3373,7 @@
         <v>43872.496111100001</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -3415,7 +3415,7 @@
         <v>43868.424363400001</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -3493,7 +3493,7 @@
         <v>35</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>35</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3602,13 +3602,13 @@
         <v>43885.996134300003</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>4168902085</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3646,13 +3646,13 @@
         <v>43885.445162000004</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -3679,7 +3679,7 @@
         <v>6478257058</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3690,13 +3690,13 @@
         <v>43885.490694400003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -3720,10 +3720,10 @@
         <v>19</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>35</v>
@@ -3738,13 +3738,13 @@
         <v>43885.541168999996</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3768,7 +3768,7 @@
         <v>19</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3779,13 +3779,13 @@
         <v>43885.9279398</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -3809,7 +3809,7 @@
         <v>19</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>35</v>
@@ -3827,13 +3827,13 @@
         <v>43886.064618099997</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3869,13 +3869,13 @@
         <v>43886.201169</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3902,10 +3902,10 @@
         <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P48" s="18"/>
     </row>
@@ -3917,13 +3917,13 @@
         <v>43886.893773099997</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -3950,7 +3950,7 @@
         <v>4164506714</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3961,13 +3961,13 @@
         <v>43886.9009028</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -3991,16 +3991,16 @@
         <v>19</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4011,13 +4011,13 @@
         <v>43887.367060199998</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -4047,14 +4047,14 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M53" s="15"/>
       <c r="P53" s="15"/>
     </row>
     <row r="54" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>4</v>
@@ -4066,13 +4066,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4080,13 +4080,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E55" s="2">
         <v>4168322204</v>
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E56" s="2">
         <v>6475451017</v>
@@ -4116,7 +4116,7 @@
         <v>43887</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -4124,13 +4124,13 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F57" s="10">
         <v>43888</v>
@@ -4142,13 +4142,13 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F58" s="10">
         <v>43890</v>
@@ -4160,13 +4160,13 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F59" s="10">
         <v>43890</v>
@@ -4178,13 +4178,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F60" s="10">
         <v>43890</v>
@@ -4196,13 +4196,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F61" s="10">
         <v>43890</v>
@@ -4214,13 +4214,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F62" s="10">
         <v>43890</v>
@@ -4232,13 +4232,13 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F63" s="10">
         <v>43890</v>
@@ -4250,13 +4250,13 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F64" s="10">
         <v>43890</v>
@@ -4268,13 +4268,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" t="s">
+        <v>258</v>
+      </c>
+      <c r="D65" t="s">
         <v>259</v>
-      </c>
-      <c r="C65" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" t="s">
-        <v>261</v>
       </c>
       <c r="F65" s="10">
         <v>43890</v>
@@ -4286,13 +4286,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>261</v>
+      </c>
+      <c r="D66" t="s">
         <v>262</v>
-      </c>
-      <c r="C66" t="s">
-        <v>263</v>
-      </c>
-      <c r="D66" t="s">
-        <v>264</v>
       </c>
       <c r="F66" s="10">
         <v>43890</v>
@@ -4304,13 +4304,13 @@
         <v>13</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E67" s="2">
         <v>4168797150</v>
@@ -4319,7 +4319,7 @@
         <v>43890</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M67" s="8"/>
       <c r="P67" s="8"/>
@@ -4329,13 +4329,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
         <v>268</v>
-      </c>
-      <c r="C68" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" t="s">
-        <v>270</v>
       </c>
       <c r="F68" s="10">
         <v>43890</v>
@@ -4797,8 +4797,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId22" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId23">
+        <control shapeId="1025" r:id="rId22" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>175</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId22" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId24" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4817,13 +4842,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId22" name="Control 6"/>
+        <control shapeId="1026" r:id="rId24" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId25">
+        <control shapeId="1027" r:id="rId26" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4835,20 +4860,20 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>175</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="Control 5"/>
+        <control shapeId="1027" r:id="rId26" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId26" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId27">
+        <control shapeId="1028" r:id="rId28" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4867,13 +4892,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId26" name="Control 4"/>
+        <control shapeId="1028" r:id="rId28" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId28" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId29">
+        <control shapeId="1029" r:id="rId30" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4885,20 +4910,20 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>175</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId28" name="Control 3"/>
+        <control shapeId="1029" r:id="rId30" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId30" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId31">
+        <control shapeId="1030" r:id="rId31" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4917,32 +4942,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId30" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId32" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>175</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId32" name="Control 1"/>
+        <control shapeId="1030" r:id="rId31" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Preperation/CodeathonAttendeeList.xlsx
+++ b/Preperation/CodeathonAttendeeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kader\Github\Codeathon\Preperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35045AD-D433-4362-95AD-A3020330DA49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746C15A8-BFE4-4317-A31D-737A491234DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="279">
   <si>
     <t>Order #</t>
   </si>
@@ -559,27 +559,6 @@
     <t>Jen (email)</t>
   </si>
   <si>
-    <t>Muhammad Kamran (email)</t>
-  </si>
-  <si>
-    <t>Nagendra (email)</t>
-  </si>
-  <si>
-    <t>Parth (email)</t>
-  </si>
-  <si>
-    <t>Sadasivan (email)</t>
-  </si>
-  <si>
-    <t>Sharanjeet (email)</t>
-  </si>
-  <si>
-    <t>Sudeep (email)</t>
-  </si>
-  <si>
-    <t>Tejinder (email)</t>
-  </si>
-  <si>
     <t>Thomas (email)</t>
   </si>
   <si>
@@ -622,9 +601,6 @@
     <t>Olawepo</t>
   </si>
   <si>
-    <t>Hetal (email)</t>
-  </si>
-  <si>
     <t>Michael (email)</t>
   </si>
   <si>
@@ -664,9 +640,6 @@
     <t>inderpreet.v1@gmail.com</t>
   </si>
   <si>
-    <t>Inderpreet (email)</t>
-  </si>
-  <si>
     <t>Soumya (email)</t>
   </si>
   <si>
@@ -718,66 +691,42 @@
     <t>subramanian</t>
   </si>
   <si>
-    <t>srividhya (email)</t>
-  </si>
-  <si>
     <t>Prep Session 001</t>
   </si>
   <si>
     <t xml:space="preserve">Anantharama </t>
   </si>
   <si>
-    <t xml:space="preserve">Saradha </t>
-  </si>
-  <si>
     <t>sharupa@hotmail.com</t>
   </si>
   <si>
-    <t>Nayakanti</t>
-  </si>
-  <si>
     <t>pavan.nayakanti@hotmail.com</t>
   </si>
   <si>
     <t>Chaudhary</t>
   </si>
   <si>
-    <t>Vishal</t>
-  </si>
-  <si>
     <t>vishu.mindspring@gmail.com</t>
   </si>
   <si>
     <t>PONRAJ</t>
   </si>
   <si>
-    <t>RUBAN</t>
-  </si>
-  <si>
     <t>royalruban@gmail.com</t>
   </si>
   <si>
     <t>Mehta</t>
   </si>
   <si>
-    <t>Dhara</t>
-  </si>
-  <si>
     <t>dharamehta1502@gmail.com</t>
   </si>
   <si>
-    <t>Tirthay</t>
-  </si>
-  <si>
     <t>mtirthay@gmail.com</t>
   </si>
   <si>
     <t>Varma</t>
   </si>
   <si>
-    <t>Jatin</t>
-  </si>
-  <si>
     <t>jatinvarma9790@gmail.com</t>
   </si>
   <si>
@@ -796,36 +745,24 @@
     <t>swethapalluru03@gmail.com</t>
   </si>
   <si>
-    <t>Swetha</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>savya1@gmail.com</t>
   </si>
   <si>
-    <t>Savya Sachi</t>
-  </si>
-  <si>
     <t>Sharma</t>
   </si>
   <si>
     <t>kevinboi143@gmail.com</t>
   </si>
   <si>
-    <t>Kevin</t>
-  </si>
-  <si>
     <t>Siva</t>
   </si>
   <si>
     <t>thuvar14@gmail.com</t>
   </si>
   <si>
-    <t>Thuvarakan</t>
-  </si>
-  <si>
     <t>Thanabalasingam</t>
   </si>
   <si>
@@ -833,6 +770,93 @@
   </si>
   <si>
     <t>George</t>
+  </si>
+  <si>
+    <t>gupta.sachin1702@gmail.com</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>sujathamutyala@gmail.com</t>
+  </si>
+  <si>
+    <t>Mutyala</t>
+  </si>
+  <si>
+    <t>System Prepared</t>
+  </si>
+  <si>
+    <t>Kevin Reachout saying registered in meetup)</t>
+  </si>
+  <si>
+    <t>srividhya</t>
+  </si>
+  <si>
+    <t>Muhammad Kamran</t>
+  </si>
+  <si>
+    <t>Nagendra</t>
+  </si>
+  <si>
+    <t>Parth</t>
+  </si>
+  <si>
+    <t>Sadasivan</t>
+  </si>
+  <si>
+    <t>Sharanjeet</t>
+  </si>
+  <si>
+    <t>Sudeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejinder </t>
+  </si>
+  <si>
+    <t>Hetal</t>
+  </si>
+  <si>
+    <t>Inderpreet</t>
+  </si>
+  <si>
+    <t>Pankaj (email)</t>
+  </si>
+  <si>
+    <t>Jatin (email)</t>
+  </si>
+  <si>
+    <t>Tirthay (email)</t>
+  </si>
+  <si>
+    <t>Dhara (email)</t>
+  </si>
+  <si>
+    <t>RUBAN (email)</t>
+  </si>
+  <si>
+    <t>Vishal (email)</t>
+  </si>
+  <si>
+    <t>Nayakanti (email)</t>
+  </si>
+  <si>
+    <t>Saradha (email)</t>
+  </si>
+  <si>
+    <t>Swetha (email)</t>
+  </si>
+  <si>
+    <t>Savya Sachi (email)</t>
+  </si>
+  <si>
+    <t>Thuvarakan (email)</t>
+  </si>
+  <si>
+    <t>Sachin (email)</t>
+  </si>
+  <si>
+    <t>Purna Sujatha (email)</t>
   </si>
 </sst>
 </file>
@@ -934,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -972,6 +996,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1641,10 +1666,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P174"/>
+  <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,13 +1681,15 @@
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" style="7" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1709,10 +1736,13 @@
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1269281611</v>
       </c>
@@ -1759,10 +1789,11 @@
         <v>35</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1267279305</v>
       </c>
@@ -1809,10 +1840,11 @@
         <v>107</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1266386973</v>
       </c>
@@ -1859,10 +1891,11 @@
         <v>77</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1269168093</v>
       </c>
@@ -1909,8 +1942,9 @@
         <v>35</v>
       </c>
       <c r="P5" s="17"/>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1266467753</v>
       </c>
@@ -1957,10 +1991,11 @@
         <v>90</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1249587225</v>
       </c>
@@ -1998,8 +2033,9 @@
         <v>19</v>
       </c>
       <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1269212243</v>
       </c>
@@ -2046,8 +2082,9 @@
         <v>35</v>
       </c>
       <c r="P8" s="17"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1249547743</v>
       </c>
@@ -2085,8 +2122,9 @@
         <v>19</v>
       </c>
       <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1268683545</v>
       </c>
@@ -2133,8 +2171,9 @@
         <v>35</v>
       </c>
       <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1273084959</v>
       </c>
@@ -2181,8 +2220,9 @@
         <v>35</v>
       </c>
       <c r="P11" s="17"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1249535073</v>
       </c>
@@ -2220,8 +2260,9 @@
         <v>19</v>
       </c>
       <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1269190499</v>
       </c>
@@ -2229,10 +2270,10 @@
         <v>43881.670416699999</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>147</v>
@@ -2260,10 +2301,11 @@
       </c>
       <c r="M13" s="8"/>
       <c r="P13" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1269219841</v>
       </c>
@@ -2310,10 +2352,11 @@
         <v>35</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1267525523</v>
       </c>
@@ -2360,8 +2403,9 @@
         <v>121</v>
       </c>
       <c r="P15" s="17"/>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1268989879</v>
       </c>
@@ -2408,8 +2452,9 @@
         <v>35</v>
       </c>
       <c r="P16" s="17"/>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1272668561</v>
       </c>
@@ -2456,10 +2501,11 @@
         <v>35</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1270282529</v>
       </c>
@@ -2467,7 +2513,7 @@
         <v>43882.430161999997</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>166</v>
@@ -2506,8 +2552,9 @@
         <v>35</v>
       </c>
       <c r="P18" s="17"/>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1266394865</v>
       </c>
@@ -2548,10 +2595,11 @@
         <v>6477392882</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1269170687</v>
       </c>
@@ -2559,7 +2607,7 @@
         <v>43881.660821799996</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>145</v>
@@ -2589,13 +2637,14 @@
         <v>19</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1262506747</v>
       </c>
@@ -2642,10 +2691,11 @@
         <v>40</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1266414059</v>
       </c>
@@ -2692,10 +2742,11 @@
         <v>35</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1266379437</v>
       </c>
@@ -2742,10 +2793,11 @@
         <v>71</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1267282035</v>
       </c>
@@ -2792,8 +2844,9 @@
         <v>35</v>
       </c>
       <c r="P24" s="17"/>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1254339593</v>
       </c>
@@ -2801,7 +2854,7 @@
         <v>43871.9128241</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>27</v>
@@ -2834,8 +2887,9 @@
         <v>3069146406</v>
       </c>
       <c r="P25" s="17"/>
-    </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1267438645</v>
       </c>
@@ -2843,7 +2897,7 @@
         <v>43880.607754600001</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>115</v>
@@ -2876,10 +2930,11 @@
         <v>6478692583</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1267549091</v>
       </c>
@@ -2926,10 +2981,11 @@
         <v>124</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1268671873</v>
       </c>
@@ -2976,10 +3032,11 @@
         <v>130</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1269394017</v>
       </c>
@@ -3026,8 +3083,9 @@
         <v>35</v>
       </c>
       <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1262519561</v>
       </c>
@@ -3074,10 +3132,11 @@
         <v>45</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1266816209</v>
       </c>
@@ -3085,7 +3144,7 @@
         <v>43880.308877299998</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>97</v>
@@ -3124,10 +3183,11 @@
         <v>101</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1264268797</v>
       </c>
@@ -3174,10 +3234,11 @@
         <v>45</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1269506341</v>
       </c>
@@ -3224,10 +3285,11 @@
         <v>35</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1263689999</v>
       </c>
@@ -3268,8 +3330,9 @@
         <v>7807168811</v>
       </c>
       <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1267307957</v>
       </c>
@@ -3277,7 +3340,7 @@
         <v>43880.548645800001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>113</v>
@@ -3307,7 +3370,7 @@
         <v>19</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>35</v>
@@ -3316,8 +3379,9 @@
         <v>35</v>
       </c>
       <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1266317075</v>
       </c>
@@ -3364,8 +3428,9 @@
         <v>65</v>
       </c>
       <c r="P36" s="17"/>
-    </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1255198885</v>
       </c>
@@ -3373,7 +3438,7 @@
         <v>43872.496111100001</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -3406,8 +3471,9 @@
         <v>2262010932</v>
       </c>
       <c r="P37" s="17"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1249601751</v>
       </c>
@@ -3415,7 +3481,7 @@
         <v>43868.424363400001</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
         <v>25</v>
@@ -3445,8 +3511,9 @@
         <v>19</v>
       </c>
       <c r="P38" s="18"/>
-    </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1262994003</v>
       </c>
@@ -3493,10 +3560,11 @@
         <v>35</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q39" s="19"/>
+    </row>
+    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1266474633</v>
       </c>
@@ -3543,8 +3611,9 @@
         <v>96</v>
       </c>
       <c r="P40" s="17"/>
-    </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1262506747</v>
       </c>
@@ -3591,10 +3660,11 @@
         <v>35</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q41" s="19"/>
+    </row>
+    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1275128383</v>
       </c>
@@ -3602,13 +3672,13 @@
         <v>43885.996134300003</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3635,10 +3705,11 @@
         <v>4168902085</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1273957955</v>
       </c>
@@ -3646,13 +3717,13 @@
         <v>43885.445162000004</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -3679,10 +3750,11 @@
         <v>6478257058</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q43" s="19"/>
+    </row>
+    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1274061179</v>
       </c>
@@ -3690,13 +3762,13 @@
         <v>43885.490694400003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -3720,17 +3792,18 @@
         <v>19</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P44" s="17"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="19"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1274197397</v>
       </c>
@@ -3738,13 +3811,13 @@
         <v>43885.541168999996</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3768,10 +3841,11 @@
         <v>19</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q45" s="21"/>
+    </row>
+    <row r="46" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1275050831</v>
       </c>
@@ -3779,13 +3853,13 @@
         <v>43885.9279398</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -3809,7 +3883,7 @@
         <v>19</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>35</v>
@@ -3818,8 +3892,9 @@
         <v>35</v>
       </c>
       <c r="P46" s="17"/>
-    </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1275207151</v>
       </c>
@@ -3827,13 +3902,13 @@
         <v>43886.064618099997</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3860,8 +3935,9 @@
         <v>4165430944</v>
       </c>
       <c r="P47" s="17"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1275383125</v>
       </c>
@@ -3869,13 +3945,13 @@
         <v>43886.201169</v>
       </c>
       <c r="C48" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3902,14 +3978,15 @@
         <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="O48" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P48" s="18"/>
-    </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q48" s="21"/>
+    </row>
+    <row r="49" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1276708249</v>
       </c>
@@ -3917,13 +3994,13 @@
         <v>43886.893773099997</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -3950,10 +4027,11 @@
         <v>4164506714</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q49" s="19"/>
+    </row>
+    <row r="50" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1276717053</v>
       </c>
@@ -3961,13 +4039,13 @@
         <v>43886.9009028</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -3991,19 +4069,20 @@
         <v>19</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="Q50" s="19"/>
+    </row>
+    <row r="51" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1277359453</v>
       </c>
@@ -4011,13 +4090,13 @@
         <v>43887.367060199998</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -4044,17 +4123,18 @@
         <v>4168463133</v>
       </c>
       <c r="P51" s="19"/>
-    </row>
-    <row r="53" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="53" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="14" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="M53" s="15"/>
       <c r="P53" s="15"/>
     </row>
-    <row r="54" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>4</v>
@@ -4066,27 +4146,30 @@
         <v>3</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E55" s="2">
         <v>4168322204</v>
@@ -4095,19 +4178,20 @@
         <v>43887</v>
       </c>
       <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="19"/>
+    </row>
+    <row r="56" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>2</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E56" s="2">
         <v>6475451017</v>
@@ -4116,126 +4200,133 @@
         <v>43887</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="H56" s="19"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F57" s="10">
         <v>43888</v>
       </c>
       <c r="G57" s="21"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
-      <c r="B58" t="s">
-        <v>252</v>
+      <c r="B58" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F58" s="10">
         <v>43890</v>
       </c>
       <c r="G58" s="21"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5</v>
       </c>
-      <c r="B59" t="s">
-        <v>249</v>
+      <c r="B59" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D59" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F59" s="10">
         <v>43890</v>
       </c>
       <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6</v>
       </c>
-      <c r="B60" t="s">
-        <v>247</v>
+      <c r="B60" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D60" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="F60" s="10">
         <v>43890</v>
       </c>
       <c r="G60" s="21"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
-        <v>244</v>
+      <c r="B61" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="D61" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F61" s="10">
         <v>43890</v>
       </c>
       <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
-      <c r="B62" t="s">
-        <v>241</v>
+      <c r="B62" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F62" s="10">
         <v>43890</v>
       </c>
       <c r="G62" s="21"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>9</v>
       </c>
-      <c r="B63" t="s">
-        <v>238</v>
+      <c r="B63" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="D63" t="s">
         <v>170</v>
@@ -4244,73 +4335,77 @@
         <v>43890</v>
       </c>
       <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10</v>
       </c>
-      <c r="B64" t="s">
-        <v>236</v>
+      <c r="B64" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F64" s="10">
         <v>43890</v>
       </c>
       <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>257</v>
+      <c r="B65" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="F65" s="10">
         <v>43890</v>
       </c>
       <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
-      <c r="B66" t="s">
-        <v>260</v>
+      <c r="B66" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="F66" s="10">
         <v>43890</v>
       </c>
       <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>13</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E67" s="2">
         <v>4168797150</v>
@@ -4319,8 +4414,9 @@
         <v>43890</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>256</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="H67" s="19"/>
       <c r="M67" s="8"/>
       <c r="P67" s="8"/>
     </row>
@@ -4328,27 +4424,64 @@
       <c r="A68">
         <v>14</v>
       </c>
-      <c r="B68" t="s">
-        <v>266</v>
+      <c r="B68" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C68" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F68" s="10">
         <v>43890</v>
       </c>
       <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F69" s="10"/>
-      <c r="G69" s="22"/>
+      <c r="A69">
+        <v>15</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F69" s="10">
+        <v>43890</v>
+      </c>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F70" s="10"/>
-      <c r="G70" s="22"/>
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="10">
+        <v>43890</v>
+      </c>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F71" s="10"/>
@@ -4789,16 +4922,28 @@
     <hyperlink ref="E48" r:id="rId16" xr:uid="{3F8F5547-721B-4998-BF6D-7A18BC062F2A}"/>
     <hyperlink ref="E51" r:id="rId17" xr:uid="{D299A0DE-926D-4DFB-8CC9-BEFE01670558}"/>
     <hyperlink ref="B56" r:id="rId18" xr:uid="{B68BC1DB-50F2-45C7-B859-2756686C6AA9}"/>
+    <hyperlink ref="B58" r:id="rId19" xr:uid="{0F6D101E-C23E-4207-AF67-B3766B1E464F}"/>
+    <hyperlink ref="B59" r:id="rId20" xr:uid="{56EFB8F6-EA9F-4283-AE3F-13FB6C8C4389}"/>
+    <hyperlink ref="B60" r:id="rId21" xr:uid="{A1910A9B-433F-49C7-BB9F-A259B5B3A0ED}"/>
+    <hyperlink ref="B61" r:id="rId22" xr:uid="{AD1F6E2E-D7C7-48C2-9F02-329DF7964095}"/>
+    <hyperlink ref="B62" r:id="rId23" xr:uid="{8D3287C2-5B2E-4E0A-9AF1-E596E76CA368}"/>
+    <hyperlink ref="B63" r:id="rId24" xr:uid="{F5983BC3-1D0D-41A6-9579-F2C2B5FE0847}"/>
+    <hyperlink ref="B64" r:id="rId25" xr:uid="{9D7DB609-55E2-4E95-80D3-CDEB31D562FB}"/>
+    <hyperlink ref="B65" r:id="rId26" xr:uid="{26095452-5736-4ADD-9A47-FF4FD7FCBEEA}"/>
+    <hyperlink ref="B66" r:id="rId27" xr:uid="{508E1C55-09BE-4E64-BEAF-17DCA9560A15}"/>
+    <hyperlink ref="B68" r:id="rId28" xr:uid="{6B02B42D-B831-46F4-9AF8-5177EEB1ECF1}"/>
+    <hyperlink ref="B70" r:id="rId29" xr:uid="{18B67779-FEBF-42F2-B114-9C6FD2EF3462}"/>
+    <hyperlink ref="B69" r:id="rId30" xr:uid="{5692AC17-DDB7-4168-BAEE-F2A57EED957F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-  <drawing r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
+  <drawing r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId22" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1025" r:id="rId34" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4817,13 +4962,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId22" name="Control 1"/>
+        <control shapeId="1025" r:id="rId34" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId24" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId25">
+        <control shapeId="1026" r:id="rId36" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4842,13 +4987,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId24" name="Control 2"/>
+        <control shapeId="1026" r:id="rId36" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId26" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId27">
+        <control shapeId="1027" r:id="rId38" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4867,13 +5012,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId26" name="Control 3"/>
+        <control shapeId="1027" r:id="rId38" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId28" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId29">
+        <control shapeId="1028" r:id="rId40" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4892,13 +5037,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId28" name="Control 4"/>
+        <control shapeId="1028" r:id="rId40" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId30" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId23">
+        <control shapeId="1029" r:id="rId42" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4917,13 +5062,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId30" name="Control 5"/>
+        <control shapeId="1029" r:id="rId42" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId31" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId32">
+        <control shapeId="1030" r:id="rId43" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4942,7 +5087,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId31" name="Control 6"/>
+        <control shapeId="1030" r:id="rId43" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Preperation/CodeathonAttendeeList.xlsx
+++ b/Preperation/CodeathonAttendeeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kader\Github\Codeathon\Preperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746C15A8-BFE4-4317-A31D-737A491234DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C202088C-E550-4CEC-9915-185A36976FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="281">
   <si>
     <t>Order #</t>
   </si>
@@ -775,9 +775,6 @@
     <t>gupta.sachin1702@gmail.com</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>sujathamutyala@gmail.com</t>
   </si>
   <si>
@@ -857,6 +854,15 @@
   </si>
   <si>
     <t>Purna Sujatha (email)</t>
+  </si>
+  <si>
+    <t>`918074137284</t>
+  </si>
+  <si>
+    <t>deepinders.singh@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepinder</t>
   </si>
 </sst>
 </file>
@@ -1016,27 +1022,27 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1668,8 +1674,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1745,7 @@
         <v>223</v>
       </c>
       <c r="Q1" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2513,7 +2519,7 @@
         <v>43882.430161999997</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>166</v>
@@ -2607,7 +2613,7 @@
         <v>43881.660821799996</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>145</v>
@@ -2854,7 +2860,7 @@
         <v>43871.9128241</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>27</v>
@@ -2897,7 +2903,7 @@
         <v>43880.607754600001</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>115</v>
@@ -3144,7 +3150,7 @@
         <v>43880.308877299998</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>97</v>
@@ -3340,7 +3346,7 @@
         <v>43880.548645800001</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>113</v>
@@ -3438,7 +3444,7 @@
         <v>43872.496111100001</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -3717,7 +3723,7 @@
         <v>43885.445162000004</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>27</v>
@@ -3902,7 +3908,7 @@
         <v>43886.064618099997</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
@@ -4155,7 +4161,7 @@
         <v>223</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4188,7 +4194,7 @@
         <v>221</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>222</v>
@@ -4212,7 +4218,7 @@
         <v>237</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D57" t="s">
         <v>236</v>
@@ -4231,7 +4237,7 @@
         <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
         <v>234</v>
@@ -4242,24 +4248,29 @@
       <c r="G58" s="21"/>
       <c r="H58" s="21"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>5</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C59" t="s">
-        <v>268</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F59" s="10">
+      <c r="E59" s="2">
+        <v>4165181864</v>
+      </c>
+      <c r="F59" s="9">
         <v>43890</v>
       </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="M59" s="8"/>
+      <c r="P59" s="8"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -4269,7 +4280,7 @@
         <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D60" t="s">
         <v>231</v>
@@ -4288,35 +4299,43 @@
         <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D61" t="s">
         <v>229</v>
       </c>
+      <c r="E61">
+        <v>4169487873</v>
+      </c>
       <c r="F61" s="10">
         <v>43890</v>
       </c>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>8</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C62" t="s">
-        <v>271</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F62" s="10">
+      <c r="E62" s="2">
+        <v>6478607382</v>
+      </c>
+      <c r="F62" s="9">
         <v>43890</v>
       </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="M62" s="8"/>
+      <c r="P62" s="8"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -4326,7 +4345,7 @@
         <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D63" t="s">
         <v>170</v>
@@ -4345,7 +4364,7 @@
         <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D64" t="s">
         <v>224</v>
@@ -4356,24 +4375,29 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>11</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C65" t="s">
-        <v>274</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F65" s="10">
+      <c r="E65" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65" s="9">
         <v>43890</v>
       </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="M65" s="8"/>
+      <c r="P65" s="8"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -4383,7 +4407,7 @@
         <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D66" t="s">
         <v>243</v>
@@ -4402,7 +4426,7 @@
         <v>244</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>245</v>
@@ -4420,72 +4444,96 @@
       <c r="M67" s="8"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>14</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6475731414</v>
+      </c>
+      <c r="F68" s="9">
+        <v>43890</v>
+      </c>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="M68" s="8"/>
+      <c r="P68" s="8"/>
+    </row>
+    <row r="69" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>15</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D68" t="s">
-        <v>247</v>
-      </c>
-      <c r="F68" s="10">
+      <c r="D69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="2">
+        <v>4372186462</v>
+      </c>
+      <c r="F69" s="9">
         <v>43890</v>
       </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>15</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="M69" s="8"/>
+      <c r="P69" s="8"/>
+    </row>
+    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>16</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D69" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" t="s">
-        <v>251</v>
-      </c>
-      <c r="F69" s="10">
+      <c r="D70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6478337535</v>
+      </c>
+      <c r="F70" s="9">
         <v>43890</v>
       </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>16</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" t="s">
-        <v>278</v>
-      </c>
-      <c r="D70" t="s">
-        <v>253</v>
-      </c>
-      <c r="E70" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" s="10">
-        <v>43890</v>
-      </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="M70" s="8"/>
+      <c r="P70" s="8"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F71" s="10"/>
-      <c r="G71" s="22"/>
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C71" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="10">
+        <v>43891</v>
+      </c>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F72" s="10"/>
@@ -4934,16 +4982,42 @@
     <hyperlink ref="B68" r:id="rId28" xr:uid="{6B02B42D-B831-46F4-9AF8-5177EEB1ECF1}"/>
     <hyperlink ref="B70" r:id="rId29" xr:uid="{18B67779-FEBF-42F2-B114-9C6FD2EF3462}"/>
     <hyperlink ref="B69" r:id="rId30" xr:uid="{5692AC17-DDB7-4168-BAEE-F2A57EED957F}"/>
+    <hyperlink ref="B71" r:id="rId31" xr:uid="{D67D36B6-72BE-412F-B88E-797420881FDC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
-  <drawing r:id="rId32"/>
-  <legacyDrawing r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
+  <drawing r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId34" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId35">
+        <control shapeId="1030" r:id="rId35" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId36">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>175</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId35" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId37" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId38">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4962,13 +5036,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId34" name="Control 1"/>
+        <control shapeId="1029" r:id="rId37" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId36" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId37">
+        <control shapeId="1028" r:id="rId39" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId40">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4987,13 +5061,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId36" name="Control 2"/>
+        <control shapeId="1028" r:id="rId39" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId38" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId39">
+        <control shapeId="1027" r:id="rId41" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId42">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5012,62 +5086,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId38" name="Control 3"/>
+        <control shapeId="1027" r:id="rId41" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId40" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId41">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>175</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId40" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId42" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId35">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>175</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId42" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId43" name="Control 6">
+        <control shapeId="1026" r:id="rId43" name="Control 2">
           <controlPr defaultSize="0" r:id="rId44">
             <anchor moveWithCells="1">
               <from>
@@ -5087,7 +5111,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId43" name="Control 6"/>
+        <control shapeId="1026" r:id="rId43" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId45" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId38">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>175</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId45" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Preperation/CodeathonAttendeeList.xlsx
+++ b/Preperation/CodeathonAttendeeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kader\Github\Codeathon\Preperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C202088C-E550-4CEC-9915-185A36976FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB605F4-FC18-4430-8F10-BB660ECB0703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="283">
   <si>
     <t>Order #</t>
   </si>
@@ -823,39 +823,21 @@
     <t>Jatin (email)</t>
   </si>
   <si>
-    <t>Tirthay (email)</t>
-  </si>
-  <si>
     <t>Dhara (email)</t>
   </si>
   <si>
     <t>RUBAN (email)</t>
   </si>
   <si>
-    <t>Vishal (email)</t>
-  </si>
-  <si>
     <t>Nayakanti (email)</t>
   </si>
   <si>
     <t>Saradha (email)</t>
   </si>
   <si>
-    <t>Swetha (email)</t>
-  </si>
-  <si>
     <t>Savya Sachi (email)</t>
   </si>
   <si>
-    <t>Thuvarakan (email)</t>
-  </si>
-  <si>
-    <t>Sachin (email)</t>
-  </si>
-  <si>
-    <t>Purna Sujatha (email)</t>
-  </si>
-  <si>
     <t>`918074137284</t>
   </si>
   <si>
@@ -863,6 +845,30 @@
   </si>
   <si>
     <t>Deepinder</t>
+  </si>
+  <si>
+    <t>Tirthay</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swetha </t>
+  </si>
+  <si>
+    <t>Thuvarakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purna Sujatha </t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>sipratrip@gmail.com (email)</t>
   </si>
 </sst>
 </file>
@@ -1022,27 +1028,27 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1674,8 +1680,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,7 +4262,7 @@
         <v>233</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>231</v>
@@ -4280,7 +4286,7 @@
         <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
         <v>231</v>
@@ -4299,7 +4305,7 @@
         <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D61" t="s">
         <v>229</v>
@@ -4321,7 +4327,7 @@
         <v>228</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>227</v>
@@ -4345,7 +4351,7 @@
         <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D63" t="s">
         <v>170</v>
@@ -4364,7 +4370,7 @@
         <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
         <v>224</v>
@@ -4383,13 +4389,13 @@
         <v>240</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F65" s="9">
         <v>43890</v>
@@ -4407,7 +4413,7 @@
         <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
         <v>243</v>
@@ -4452,7 +4458,7 @@
         <v>246</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>247</v>
@@ -4476,7 +4482,7 @@
         <v>250</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>57</v>
@@ -4500,7 +4506,7 @@
         <v>251</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>252</v>
@@ -4516,27 +4522,46 @@
       <c r="M70" s="8"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
         <v>17</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" t="s">
-        <v>280</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="B71" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F71" s="10">
+      <c r="E71" s="2">
+        <v>5879666131</v>
+      </c>
+      <c r="F71" s="9">
         <v>43891</v>
       </c>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="M71" s="8"/>
+      <c r="P71" s="8"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F72" s="10"/>
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s">
+        <v>281</v>
+      </c>
+      <c r="F72" s="10">
+        <v>43892</v>
+      </c>
       <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -4983,16 +5008,42 @@
     <hyperlink ref="B70" r:id="rId29" xr:uid="{18B67779-FEBF-42F2-B114-9C6FD2EF3462}"/>
     <hyperlink ref="B69" r:id="rId30" xr:uid="{5692AC17-DDB7-4168-BAEE-F2A57EED957F}"/>
     <hyperlink ref="B71" r:id="rId31" xr:uid="{D67D36B6-72BE-412F-B88E-797420881FDC}"/>
+    <hyperlink ref="B72" r:id="rId32" xr:uid="{AC5CDDEE-D233-47E3-94E2-CDE3944E4AED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
-  <drawing r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
+  <drawing r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId35" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId36">
+        <control shapeId="1025" r:id="rId36" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId37">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>175</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId36" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId38" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5011,13 +5062,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId35" name="Control 6"/>
+        <control shapeId="1026" r:id="rId38" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId37" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId38">
+        <control shapeId="1027" r:id="rId40" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId41">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5036,13 +5087,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId37" name="Control 5"/>
+        <control shapeId="1027" r:id="rId40" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId39" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId40">
+        <control shapeId="1028" r:id="rId42" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5061,13 +5112,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId39" name="Control 4"/>
+        <control shapeId="1028" r:id="rId42" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId41" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId42">
+        <control shapeId="1029" r:id="rId44" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId37">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5086,13 +5137,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId41" name="Control 3"/>
+        <control shapeId="1029" r:id="rId44" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId43" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId44">
+        <control shapeId="1030" r:id="rId45" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId46">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -5111,32 +5162,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId43" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId45" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId38">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>175</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId45" name="Control 1"/>
+        <control shapeId="1030" r:id="rId45" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Preperation/CodeathonAttendeeList.xlsx
+++ b/Preperation/CodeathonAttendeeList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kader\Github\Codeathon\Preperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB605F4-FC18-4430-8F10-BB660ECB0703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F0F48-BB8E-42DC-A095-BB96BA5FFB35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="289">
   <si>
     <t>Order #</t>
   </si>
@@ -869,6 +869,24 @@
   </si>
   <si>
     <t>sipratrip@gmail.com (email)</t>
+  </si>
+  <si>
+    <t>Team IA</t>
+  </si>
+  <si>
+    <t>Team TO</t>
+  </si>
+  <si>
+    <t>Beginer Testoper</t>
+  </si>
+  <si>
+    <t>If Team IA, mention Topic you may train community?</t>
+  </si>
+  <si>
+    <t>If Team TO, mention Topic you may train community?</t>
+  </si>
+  <si>
+    <t>If Beginner Testoper What help you need?</t>
   </si>
 </sst>
 </file>
@@ -970,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1009,6 +1027,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1057,15 +1080,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1107,15 +1130,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1157,15 +1180,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1207,15 +1230,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1257,15 +1280,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>1</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
+          <xdr:col>2</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1307,15 +1330,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
+          <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>174</xdr:row>
+          <xdr:row>200</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>914400</xdr:colOff>
-          <xdr:row>175</xdr:row>
+          <xdr:row>201</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1678,30 +1701,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q174"/>
+  <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" style="7" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" style="7" customWidth="1"/>
     <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="21" max="21" width="38.7109375" customWidth="1"/>
+    <col min="22" max="22" width="51.7109375" customWidth="1"/>
+    <col min="23" max="23" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1753,8 +1783,26 @@
       <c r="Q1" s="23" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R1" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="V1" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1269281611</v>
       </c>
@@ -1804,8 +1852,14 @@
         <v>239</v>
       </c>
       <c r="Q2" s="19"/>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1267279305</v>
       </c>
@@ -1855,8 +1909,14 @@
         <v>239</v>
       </c>
       <c r="Q3" s="19"/>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1266386973</v>
       </c>
@@ -1906,8 +1966,14 @@
         <v>239</v>
       </c>
       <c r="Q4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1269168093</v>
       </c>
@@ -1955,8 +2021,14 @@
       </c>
       <c r="P5" s="17"/>
       <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1266467753</v>
       </c>
@@ -2006,8 +2078,14 @@
         <v>239</v>
       </c>
       <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1249587225</v>
       </c>
@@ -2046,8 +2124,14 @@
       </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+    </row>
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1269212243</v>
       </c>
@@ -2095,8 +2179,14 @@
       </c>
       <c r="P8" s="17"/>
       <c r="Q8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1249547743</v>
       </c>
@@ -2135,8 +2225,14 @@
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+    </row>
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1268683545</v>
       </c>
@@ -2184,8 +2280,14 @@
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+    </row>
+    <row r="11" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1273084959</v>
       </c>
@@ -2233,8 +2335,14 @@
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1249535073</v>
       </c>
@@ -2273,8 +2381,14 @@
       </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+    </row>
+    <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1269190499</v>
       </c>
@@ -2316,8 +2430,14 @@
         <v>239</v>
       </c>
       <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1269219841</v>
       </c>
@@ -2367,8 +2487,14 @@
         <v>239</v>
       </c>
       <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+    </row>
+    <row r="15" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1267525523</v>
       </c>
@@ -2416,8 +2542,14 @@
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+    </row>
+    <row r="16" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1268989879</v>
       </c>
@@ -2465,8 +2597,14 @@
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+    </row>
+    <row r="17" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1272668561</v>
       </c>
@@ -2516,8 +2654,14 @@
         <v>239</v>
       </c>
       <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+    </row>
+    <row r="18" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1270282529</v>
       </c>
@@ -2565,8 +2709,14 @@
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+    </row>
+    <row r="19" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1266394865</v>
       </c>
@@ -2610,8 +2760,14 @@
         <v>239</v>
       </c>
       <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+    </row>
+    <row r="20" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1269170687</v>
       </c>
@@ -2655,8 +2811,14 @@
         <v>239</v>
       </c>
       <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+    </row>
+    <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1262506747</v>
       </c>
@@ -2706,8 +2868,14 @@
         <v>239</v>
       </c>
       <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+    </row>
+    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1266414059</v>
       </c>
@@ -2757,8 +2925,14 @@
         <v>239</v>
       </c>
       <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+    </row>
+    <row r="23" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1266379437</v>
       </c>
@@ -2808,8 +2982,14 @@
         <v>239</v>
       </c>
       <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1267282035</v>
       </c>
@@ -2857,8 +3037,14 @@
       </c>
       <c r="P24" s="17"/>
       <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1254339593</v>
       </c>
@@ -2900,8 +3086,14 @@
       </c>
       <c r="P25" s="17"/>
       <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+    </row>
+    <row r="26" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1267438645</v>
       </c>
@@ -2945,8 +3137,14 @@
         <v>239</v>
       </c>
       <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+    </row>
+    <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1267549091</v>
       </c>
@@ -2996,8 +3194,14 @@
         <v>239</v>
       </c>
       <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+    </row>
+    <row r="28" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1268671873</v>
       </c>
@@ -3047,8 +3251,14 @@
         <v>239</v>
       </c>
       <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+    </row>
+    <row r="29" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1269394017</v>
       </c>
@@ -3096,8 +3306,14 @@
       </c>
       <c r="P29" s="17"/>
       <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+    </row>
+    <row r="30" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1262519561</v>
       </c>
@@ -3147,8 +3363,14 @@
         <v>239</v>
       </c>
       <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1266816209</v>
       </c>
@@ -3198,8 +3420,14 @@
         <v>239</v>
       </c>
       <c r="Q31" s="19"/>
-    </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1264268797</v>
       </c>
@@ -3249,8 +3477,14 @@
         <v>239</v>
       </c>
       <c r="Q32" s="19"/>
-    </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+    </row>
+    <row r="33" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1269506341</v>
       </c>
@@ -3300,8 +3534,14 @@
         <v>239</v>
       </c>
       <c r="Q33" s="19"/>
-    </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+    </row>
+    <row r="34" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1263689999</v>
       </c>
@@ -3343,8 +3583,14 @@
       </c>
       <c r="P34" s="17"/>
       <c r="Q34" s="19"/>
-    </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+    </row>
+    <row r="35" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1267307957</v>
       </c>
@@ -3392,8 +3638,14 @@
       </c>
       <c r="P35" s="17"/>
       <c r="Q35" s="19"/>
-    </row>
-    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+    </row>
+    <row r="36" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1266317075</v>
       </c>
@@ -3441,8 +3693,14 @@
       </c>
       <c r="P36" s="17"/>
       <c r="Q36" s="19"/>
-    </row>
-    <row r="37" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+    </row>
+    <row r="37" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1255198885</v>
       </c>
@@ -3484,8 +3742,14 @@
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="19"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1249601751</v>
       </c>
@@ -3524,8 +3788,14 @@
       </c>
       <c r="P38" s="18"/>
       <c r="Q38" s="21"/>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+    </row>
+    <row r="39" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1262994003</v>
       </c>
@@ -3575,8 +3845,14 @@
         <v>239</v>
       </c>
       <c r="Q39" s="19"/>
-    </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+    </row>
+    <row r="40" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1266474633</v>
       </c>
@@ -3624,8 +3900,14 @@
       </c>
       <c r="P40" s="17"/>
       <c r="Q40" s="19"/>
-    </row>
-    <row r="41" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+    </row>
+    <row r="41" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1262506747</v>
       </c>
@@ -3675,8 +3957,14 @@
         <v>239</v>
       </c>
       <c r="Q41" s="19"/>
-    </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+    </row>
+    <row r="42" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1275128383</v>
       </c>
@@ -3720,8 +4008,14 @@
         <v>239</v>
       </c>
       <c r="Q42" s="19"/>
-    </row>
-    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+    </row>
+    <row r="43" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1273957955</v>
       </c>
@@ -3765,8 +4059,14 @@
         <v>239</v>
       </c>
       <c r="Q43" s="19"/>
-    </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+    </row>
+    <row r="44" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1274061179</v>
       </c>
@@ -3814,8 +4114,14 @@
       </c>
       <c r="P44" s="17"/>
       <c r="Q44" s="19"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1274197397</v>
       </c>
@@ -3856,8 +4162,14 @@
         <v>239</v>
       </c>
       <c r="Q45" s="21"/>
-    </row>
-    <row r="46" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+    </row>
+    <row r="46" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1275050831</v>
       </c>
@@ -3905,8 +4217,14 @@
       </c>
       <c r="P46" s="17"/>
       <c r="Q46" s="19"/>
-    </row>
-    <row r="47" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+    </row>
+    <row r="47" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1275207151</v>
       </c>
@@ -3948,8 +4266,14 @@
       </c>
       <c r="P47" s="17"/>
       <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1275383125</v>
       </c>
@@ -3997,8 +4321,14 @@
       </c>
       <c r="P48" s="18"/>
       <c r="Q48" s="21"/>
-    </row>
-    <row r="49" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+    </row>
+    <row r="49" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1276708249</v>
       </c>
@@ -4042,8 +4372,14 @@
         <v>239</v>
       </c>
       <c r="Q49" s="19"/>
-    </row>
-    <row r="50" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+    </row>
+    <row r="50" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1276717053</v>
       </c>
@@ -4093,8 +4429,14 @@
         <v>239</v>
       </c>
       <c r="Q50" s="19"/>
-    </row>
-    <row r="51" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+    </row>
+    <row r="51" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1277359453</v>
       </c>
@@ -4136,591 +4478,957 @@
       </c>
       <c r="P51" s="19"/>
       <c r="Q51" s="19"/>
-    </row>
-    <row r="53" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="14" t="s">
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+    </row>
+    <row r="52" spans="1:23" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="M53" s="15"/>
-      <c r="P53" s="15"/>
-    </row>
-    <row r="54" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="M52" s="15"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
+    </row>
+    <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M53" s="2">
+        <v>4168322204</v>
+      </c>
+      <c r="P53" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q53" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+    </row>
+    <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="9">
+        <v>43887</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M54" s="2">
+        <v>6475451017</v>
+      </c>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B55" s="10">
+        <v>43888</v>
+      </c>
+      <c r="C55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D55" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" t="s">
+        <v>237</v>
+      </c>
+      <c r="M55"/>
+      <c r="P55" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B56" s="10">
+        <v>43890</v>
+      </c>
+      <c r="C56" t="s">
+        <v>266</v>
+      </c>
+      <c r="D56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="M56"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+    </row>
+    <row r="57" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="M57" s="2">
+        <v>4165181864</v>
+      </c>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="10">
+        <v>43890</v>
+      </c>
+      <c r="C58" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="M58"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B59" s="10">
+        <v>43890</v>
+      </c>
+      <c r="C59" t="s">
+        <v>268</v>
+      </c>
+      <c r="D59" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="M59">
+        <v>4169487873</v>
+      </c>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
+    </row>
+    <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M60" s="2">
+        <v>6478607382</v>
+      </c>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B61" s="10">
+        <v>43890</v>
+      </c>
+      <c r="C61" t="s">
+        <v>269</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="M61"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B62" s="10">
+        <v>43890</v>
+      </c>
+      <c r="C62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="M62"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
+    </row>
+    <row r="63" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B64" s="10">
+        <v>43890</v>
+      </c>
+      <c r="C64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="M64"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+    </row>
+    <row r="65" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M65" s="2">
+        <v>4168797150</v>
+      </c>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+    </row>
+    <row r="66" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="M66" s="2">
+        <v>6475731414</v>
+      </c>
+      <c r="P66" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+    </row>
+    <row r="67" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M67" s="2">
+        <v>4372186462</v>
+      </c>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+    </row>
+    <row r="68" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="9">
+        <v>43890</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="M68" s="2">
+        <v>6478337535</v>
+      </c>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+    </row>
+    <row r="69" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="9">
+        <v>43891</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="M69" s="2">
+        <v>5879666131</v>
+      </c>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B70" s="10">
+        <v>43892</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s">
+        <v>281</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M70"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P71" s="22"/>
+    </row>
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:23" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="M79" s="15"/>
+      <c r="P79" s="15"/>
+    </row>
+    <row r="80" spans="1:23" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B80" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D80" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E80" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G54" s="20" t="s">
+      <c r="G80" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H80" s="23" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="81" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>1</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E81" s="2">
         <v>4168322204</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F81" s="9">
         <v>43887</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>2</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E82" s="2">
         <v>6475451017</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F82" s="9">
         <v>43887</v>
       </c>
-      <c r="G56" s="19" t="s">
+      <c r="G82" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="H56" s="19"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="H82" s="19"/>
+    </row>
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>3</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B83" t="s">
         <v>237</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C83" t="s">
         <v>265</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D83" t="s">
         <v>236</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F83" s="10">
         <v>43888</v>
       </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>4</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C84" t="s">
         <v>266</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D84" t="s">
         <v>234</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F84" s="10">
         <v>43890</v>
       </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-    </row>
-    <row r="59" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>5</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E85" s="2">
         <v>4165181864</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F85" s="9">
         <v>43890</v>
       </c>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="M59" s="8"/>
-      <c r="P59" s="8"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="M85" s="8"/>
+      <c r="P85" s="8"/>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>6</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C86" t="s">
         <v>267</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D86" t="s">
         <v>231</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F86" s="10">
         <v>43890</v>
       </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>7</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C87" t="s">
         <v>268</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D87" t="s">
         <v>229</v>
       </c>
-      <c r="E61">
+      <c r="E87">
         <v>4169487873</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F87" s="10">
         <v>43890</v>
       </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-    </row>
-    <row r="62" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>8</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E88" s="2">
         <v>6478607382</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F88" s="9">
         <v>43890</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="M62" s="8"/>
-      <c r="P62" s="8"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="M88" s="8"/>
+      <c r="P88" s="8"/>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>9</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C89" t="s">
         <v>269</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D89" t="s">
         <v>170</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F89" s="10">
         <v>43890</v>
       </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>10</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C90" t="s">
         <v>270</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D90" t="s">
         <v>224</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F90" s="10">
         <v>43890</v>
       </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-    </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>11</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F91" s="9">
         <v>43890</v>
       </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="M65" s="8"/>
-      <c r="P65" s="8"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="M91" s="8"/>
+      <c r="P91" s="8"/>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>12</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C92" t="s">
         <v>271</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D92" t="s">
         <v>243</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F92" s="10">
         <v>43890</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-    </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
         <v>13</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E93" s="2">
         <v>4168797150</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F93" s="9">
         <v>43890</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G93" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="M67" s="8"/>
-      <c r="P67" s="8"/>
-    </row>
-    <row r="68" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="H93" s="19"/>
+      <c r="M93" s="8"/>
+      <c r="P93" s="8"/>
+    </row>
+    <row r="94" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
         <v>14</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E94" s="2">
         <v>6475731414</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F94" s="9">
         <v>43890</v>
       </c>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="M68" s="8"/>
-      <c r="P68" s="8"/>
-    </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="M94" s="8"/>
+      <c r="P94" s="8"/>
+    </row>
+    <row r="95" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
         <v>15</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E95" s="2">
         <v>4372186462</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F95" s="9">
         <v>43890</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="M69" s="8"/>
-      <c r="P69" s="8"/>
-    </row>
-    <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="M95" s="8"/>
+      <c r="P95" s="8"/>
+    </row>
+    <row r="96" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
         <v>16</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E96" s="2">
         <v>6478337535</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F96" s="9">
         <v>43890</v>
       </c>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="M70" s="8"/>
-      <c r="P70" s="8"/>
-    </row>
-    <row r="71" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="M96" s="8"/>
+      <c r="P96" s="8"/>
+    </row>
+    <row r="97" spans="1:16" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
         <v>17</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E97" s="2">
         <v>5879666131</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F97" s="9">
         <v>43891</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="M71" s="8"/>
-      <c r="P71" s="8"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="M97" s="8"/>
+      <c r="P97" s="8"/>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>18</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C98" t="s">
         <v>36</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D98" t="s">
         <v>281</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F98" s="10">
         <v>43892</v>
       </c>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F73" s="10"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F74" s="10"/>
-      <c r="G74" s="22"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F75" s="10"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F76" s="10"/>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F77" s="10"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F78" s="10"/>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F79" s="10"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F80" s="10"/>
-      <c r="G80" s="22"/>
-    </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F81" s="10"/>
-      <c r="G81" s="22"/>
-    </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F82" s="10"/>
-      <c r="G82" s="22"/>
-    </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F83" s="10"/>
-      <c r="G83" s="22"/>
-    </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F84" s="10"/>
-      <c r="G84" s="22"/>
-    </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F85" s="10"/>
-      <c r="G85" s="22"/>
-    </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F86" s="10"/>
-      <c r="G86" s="22"/>
-    </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F87" s="10"/>
-      <c r="G87" s="22"/>
-    </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F88" s="10"/>
-      <c r="G88" s="22"/>
-    </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F89" s="10"/>
-      <c r="G89" s="22"/>
-    </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F90" s="10"/>
-      <c r="G90" s="22"/>
-    </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F91" s="10"/>
-      <c r="G91" s="22"/>
-    </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F92" s="10"/>
-      <c r="G92" s="22"/>
-    </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F93" s="10"/>
-      <c r="G93" s="22"/>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F94" s="10"/>
-      <c r="G94" s="22"/>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F95" s="10"/>
-      <c r="G95" s="22"/>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F96" s="10"/>
-      <c r="G96" s="22"/>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F97" s="10"/>
-      <c r="G97" s="22"/>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F98" s="10"/>
       <c r="G98" s="22"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="F99" s="10"/>
       <c r="G99" s="22"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="F100" s="10"/>
       <c r="G100" s="22"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="F101" s="10"/>
       <c r="G101" s="22"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F102" s="10"/>
       <c r="G102" s="22"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F103" s="10"/>
       <c r="G103" s="22"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F104" s="10"/>
       <c r="G104" s="22"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F105" s="10"/>
       <c r="G105" s="22"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F106" s="10"/>
       <c r="G106" s="22"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F107" s="10"/>
       <c r="G107" s="22"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F108" s="10"/>
       <c r="G108" s="22"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F109" s="10"/>
       <c r="G109" s="22"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F110" s="10"/>
       <c r="G110" s="22"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F111" s="10"/>
       <c r="G111" s="22"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F112" s="10"/>
       <c r="G112" s="22"/>
     </row>
@@ -4972,8 +5680,112 @@
       <c r="F174" s="10"/>
       <c r="G174" s="22"/>
     </row>
+    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F175" s="10"/>
+      <c r="G175" s="22"/>
+    </row>
+    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F176" s="10"/>
+      <c r="G176" s="22"/>
+    </row>
+    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F177" s="10"/>
+      <c r="G177" s="22"/>
+    </row>
+    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F178" s="10"/>
+      <c r="G178" s="22"/>
+    </row>
+    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F179" s="10"/>
+      <c r="G179" s="22"/>
+    </row>
+    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F180" s="10"/>
+      <c r="G180" s="22"/>
+    </row>
+    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F181" s="10"/>
+      <c r="G181" s="22"/>
+    </row>
+    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F182" s="10"/>
+      <c r="G182" s="22"/>
+    </row>
+    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F183" s="10"/>
+      <c r="G183" s="22"/>
+    </row>
+    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F184" s="10"/>
+      <c r="G184" s="22"/>
+    </row>
+    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F185" s="10"/>
+      <c r="G185" s="22"/>
+    </row>
+    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F186" s="10"/>
+      <c r="G186" s="22"/>
+    </row>
+    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F187" s="10"/>
+      <c r="G187" s="22"/>
+    </row>
+    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F188" s="10"/>
+      <c r="G188" s="22"/>
+    </row>
+    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F189" s="10"/>
+      <c r="G189" s="22"/>
+    </row>
+    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F190" s="10"/>
+      <c r="G190" s="22"/>
+    </row>
+    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F191" s="10"/>
+      <c r="G191" s="22"/>
+    </row>
+    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F192" s="10"/>
+      <c r="G192" s="22"/>
+    </row>
+    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F193" s="10"/>
+      <c r="G193" s="22"/>
+    </row>
+    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F194" s="10"/>
+      <c r="G194" s="22"/>
+    </row>
+    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F195" s="10"/>
+      <c r="G195" s="22"/>
+    </row>
+    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F196" s="10"/>
+      <c r="G196" s="22"/>
+    </row>
+    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F197" s="10"/>
+      <c r="G197" s="22"/>
+    </row>
+    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F198" s="10"/>
+      <c r="G198" s="22"/>
+    </row>
+    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F199" s="10"/>
+      <c r="G199" s="22"/>
+    </row>
+    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F200" s="10"/>
+      <c r="G200" s="22"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:O41">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O41">
     <sortCondition ref="C1"/>
   </sortState>
   <hyperlinks>
@@ -4994,42 +5806,57 @@
     <hyperlink ref="E47" r:id="rId15" xr:uid="{4B532580-1BC5-4868-9548-CD6D371CE9E0}"/>
     <hyperlink ref="E48" r:id="rId16" xr:uid="{3F8F5547-721B-4998-BF6D-7A18BC062F2A}"/>
     <hyperlink ref="E51" r:id="rId17" xr:uid="{D299A0DE-926D-4DFB-8CC9-BEFE01670558}"/>
-    <hyperlink ref="B56" r:id="rId18" xr:uid="{B68BC1DB-50F2-45C7-B859-2756686C6AA9}"/>
-    <hyperlink ref="B58" r:id="rId19" xr:uid="{0F6D101E-C23E-4207-AF67-B3766B1E464F}"/>
-    <hyperlink ref="B59" r:id="rId20" xr:uid="{56EFB8F6-EA9F-4283-AE3F-13FB6C8C4389}"/>
-    <hyperlink ref="B60" r:id="rId21" xr:uid="{A1910A9B-433F-49C7-BB9F-A259B5B3A0ED}"/>
-    <hyperlink ref="B61" r:id="rId22" xr:uid="{AD1F6E2E-D7C7-48C2-9F02-329DF7964095}"/>
-    <hyperlink ref="B62" r:id="rId23" xr:uid="{8D3287C2-5B2E-4E0A-9AF1-E596E76CA368}"/>
-    <hyperlink ref="B63" r:id="rId24" xr:uid="{F5983BC3-1D0D-41A6-9579-F2C2B5FE0847}"/>
-    <hyperlink ref="B64" r:id="rId25" xr:uid="{9D7DB609-55E2-4E95-80D3-CDEB31D562FB}"/>
-    <hyperlink ref="B65" r:id="rId26" xr:uid="{26095452-5736-4ADD-9A47-FF4FD7FCBEEA}"/>
-    <hyperlink ref="B66" r:id="rId27" xr:uid="{508E1C55-09BE-4E64-BEAF-17DCA9560A15}"/>
-    <hyperlink ref="B68" r:id="rId28" xr:uid="{6B02B42D-B831-46F4-9AF8-5177EEB1ECF1}"/>
-    <hyperlink ref="B70" r:id="rId29" xr:uid="{18B67779-FEBF-42F2-B114-9C6FD2EF3462}"/>
-    <hyperlink ref="B69" r:id="rId30" xr:uid="{5692AC17-DDB7-4168-BAEE-F2A57EED957F}"/>
-    <hyperlink ref="B71" r:id="rId31" xr:uid="{D67D36B6-72BE-412F-B88E-797420881FDC}"/>
-    <hyperlink ref="B72" r:id="rId32" xr:uid="{AC5CDDEE-D233-47E3-94E2-CDE3944E4AED}"/>
+    <hyperlink ref="B82" r:id="rId18" xr:uid="{B68BC1DB-50F2-45C7-B859-2756686C6AA9}"/>
+    <hyperlink ref="B84" r:id="rId19" xr:uid="{0F6D101E-C23E-4207-AF67-B3766B1E464F}"/>
+    <hyperlink ref="B85" r:id="rId20" xr:uid="{56EFB8F6-EA9F-4283-AE3F-13FB6C8C4389}"/>
+    <hyperlink ref="B86" r:id="rId21" xr:uid="{A1910A9B-433F-49C7-BB9F-A259B5B3A0ED}"/>
+    <hyperlink ref="B87" r:id="rId22" xr:uid="{AD1F6E2E-D7C7-48C2-9F02-329DF7964095}"/>
+    <hyperlink ref="B88" r:id="rId23" xr:uid="{8D3287C2-5B2E-4E0A-9AF1-E596E76CA368}"/>
+    <hyperlink ref="B89" r:id="rId24" xr:uid="{F5983BC3-1D0D-41A6-9579-F2C2B5FE0847}"/>
+    <hyperlink ref="B90" r:id="rId25" xr:uid="{9D7DB609-55E2-4E95-80D3-CDEB31D562FB}"/>
+    <hyperlink ref="B91" r:id="rId26" xr:uid="{26095452-5736-4ADD-9A47-FF4FD7FCBEEA}"/>
+    <hyperlink ref="B92" r:id="rId27" xr:uid="{508E1C55-09BE-4E64-BEAF-17DCA9560A15}"/>
+    <hyperlink ref="B94" r:id="rId28" xr:uid="{6B02B42D-B831-46F4-9AF8-5177EEB1ECF1}"/>
+    <hyperlink ref="B96" r:id="rId29" xr:uid="{18B67779-FEBF-42F2-B114-9C6FD2EF3462}"/>
+    <hyperlink ref="B95" r:id="rId30" xr:uid="{5692AC17-DDB7-4168-BAEE-F2A57EED957F}"/>
+    <hyperlink ref="B97" r:id="rId31" xr:uid="{D67D36B6-72BE-412F-B88E-797420881FDC}"/>
+    <hyperlink ref="B98" r:id="rId32" xr:uid="{AC5CDDEE-D233-47E3-94E2-CDE3944E4AED}"/>
+    <hyperlink ref="E54" r:id="rId33" xr:uid="{3F4FF152-D0FE-4E67-84AD-050A2E768A9D}"/>
+    <hyperlink ref="E56" r:id="rId34" xr:uid="{1A62ACFE-734A-4D6C-97A3-F556A279FFF7}"/>
+    <hyperlink ref="E57" r:id="rId35" xr:uid="{D8C93A4A-4F29-4A28-88E8-0CF9856B3F6E}"/>
+    <hyperlink ref="E58" r:id="rId36" xr:uid="{DFD053B1-5DA6-4FA2-8F64-966BCFEA4312}"/>
+    <hyperlink ref="E59" r:id="rId37" xr:uid="{209B2D2B-C7E2-42F5-86B4-43322521BD3C}"/>
+    <hyperlink ref="E60" r:id="rId38" xr:uid="{DF90E562-1546-4D08-8902-E1096D1FCCA3}"/>
+    <hyperlink ref="E61" r:id="rId39" xr:uid="{731DAC29-F0A8-4431-9239-09BE664D0D57}"/>
+    <hyperlink ref="E62" r:id="rId40" xr:uid="{CF2B4ED0-7C95-41F1-9F90-5A6909A768A5}"/>
+    <hyperlink ref="E63" r:id="rId41" xr:uid="{9ABF6FF9-C0E6-4EEC-9EB9-4E42CFF2F963}"/>
+    <hyperlink ref="E64" r:id="rId42" xr:uid="{CC9883A0-2BAD-4BF3-9C17-6A62939E9C5D}"/>
+    <hyperlink ref="E66" r:id="rId43" xr:uid="{1924CCD9-FD53-4671-8B94-95A92FB48F11}"/>
+    <hyperlink ref="E68" r:id="rId44" xr:uid="{059AC2CE-479E-4B3D-9230-58CE4DD430F4}"/>
+    <hyperlink ref="E67" r:id="rId45" xr:uid="{BF303C06-DC98-49A0-A77E-E7636D8A7504}"/>
+    <hyperlink ref="E69" r:id="rId46" xr:uid="{08FBDF88-9D83-4956-BD17-6D7A2BAFD96B}"/>
+    <hyperlink ref="E70" r:id="rId47" xr:uid="{6C49552E-A49F-434C-BECD-EC05DA2BB14F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
-  <drawing r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
+  <drawing r:id="rId49"/>
+  <legacyDrawing r:id="rId50"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId36" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId37">
+        <control shapeId="1025" r:id="rId51" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
+                <xdr:row>200</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>175</xdr:row>
+                <xdr:row>201</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -5037,24 +5864,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId36" name="Control 1"/>
+        <control shapeId="1025" r:id="rId51" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId38" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId39">
+        <control shapeId="1026" r:id="rId53" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId54">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
+                <xdr:row>200</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>175</xdr:row>
+                <xdr:row>201</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -5062,24 +5889,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId38" name="Control 2"/>
+        <control shapeId="1026" r:id="rId53" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId40" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId41">
+        <control shapeId="1027" r:id="rId55" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId56">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
+                <xdr:row>200</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>175</xdr:row>
+                <xdr:row>201</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -5087,24 +5914,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId40" name="Control 3"/>
+        <control shapeId="1027" r:id="rId55" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId42" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId43">
+        <control shapeId="1028" r:id="rId57" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId58">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
+                <xdr:row>200</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>175</xdr:row>
+                <xdr:row>201</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -5112,24 +5939,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId42" name="Control 4"/>
+        <control shapeId="1028" r:id="rId57" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId44" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId37">
+        <control shapeId="1029" r:id="rId59" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId52">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
+                <xdr:row>200</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>175</xdr:row>
+                <xdr:row>201</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
@@ -5137,24 +5964,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId44" name="Control 5"/>
+        <control shapeId="1029" r:id="rId59" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId45" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId46">
+        <control shapeId="1030" r:id="rId60" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId61">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
+                <xdr:row>200</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>175</xdr:row>
+                <xdr:row>201</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
@@ -5162,7 +5989,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId45" name="Control 6"/>
+        <control shapeId="1030" r:id="rId60" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
